--- a/data/trans_bre/PCS12_SP_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.14516518542169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.209342898527183</v>
+        <v>7.209342898527193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2539585152845054</v>
@@ -649,7 +649,7 @@
         <v>0.2639872712197135</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1383142072476199</v>
+        <v>0.1383142072476201</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.747495559651426</v>
+        <v>9.334321944469107</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.827893318284356</v>
+        <v>8.023514822813233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.765381676659915</v>
+        <v>6.914878225280696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4666361394762527</v>
+        <v>1.385579534321935</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1654528207949631</v>
+        <v>0.1574056304666917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1623693460426441</v>
+        <v>0.1636694303483637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1514587357380128</v>
+        <v>0.1559836588013883</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.007772418358438428</v>
+        <v>0.02676949925789444</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.55576205098965</v>
+        <v>19.41744671094942</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.76397811312171</v>
+        <v>16.72711626230083</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.06868566542403</v>
+        <v>15.38790673435815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.34744156543539</v>
+        <v>13.13263613479321</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3731991444323676</v>
+        <v>0.3661937169954105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3838087376044771</v>
+        <v>0.3759634754178853</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3782158511312551</v>
+        <v>0.3829846034600838</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2804783327502943</v>
+        <v>0.2778087907572788</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.832063538082966</v>
+        <v>6.26168912321783</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.66802912941367</v>
+        <v>7.792149021180352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.214311487500992</v>
+        <v>4.140055944845622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.087603092533438</v>
+        <v>6.682493903835514</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1519619726450486</v>
+        <v>0.1360197908861431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1740867305829735</v>
+        <v>0.172695472663329</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1154633886107923</v>
+        <v>0.1103489564270369</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1521049863272866</v>
+        <v>0.1440533896744256</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.96255311539288</v>
+        <v>15.17690372113937</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.74803024163271</v>
+        <v>16.50122735761013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.48278543943695</v>
+        <v>13.28282303634682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.38681595504395</v>
+        <v>15.97483672210428</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3677189620415519</v>
+        <v>0.369316360062349</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4225525540019195</v>
+        <v>0.4153924419450253</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4130685556298027</v>
+        <v>0.4019600237430584</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4066641643200619</v>
+        <v>0.4000055632766361</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.623007945317257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.420444217977263</v>
+        <v>7.420444217977268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3489307118339389</v>
@@ -849,7 +849,7 @@
         <v>0.2281962993650482</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1761006354996219</v>
+        <v>0.176100635499622</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.97889210778691</v>
+        <v>8.57692177529688</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8358573891225839</v>
+        <v>1.024426820022073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.868229671890767</v>
+        <v>3.800976290414487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.776604568081065</v>
+        <v>3.464732205032549</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2260102612559954</v>
+        <v>0.2155972996162925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01867614834397972</v>
+        <v>0.02122178138867285</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09418688843292154</v>
+        <v>0.09576303583300076</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06645145995814333</v>
+        <v>0.07786147232721087</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.75524108019436</v>
+        <v>17.5401210409803</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.7138047300547</v>
+        <v>10.75631033194554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.81902255939147</v>
+        <v>13.93907493114027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.38618037020967</v>
+        <v>11.68918480767555</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4906248129835413</v>
+        <v>0.4935746655440189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2602943473500817</v>
+        <v>0.2569289456011237</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.387619905913125</v>
+        <v>0.3907140769767106</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2903432870110312</v>
+        <v>0.2988917504853532</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.462139214323751</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.890128282855347</v>
+        <v>1.890128282855369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4224170273204383</v>
@@ -949,7 +949,7 @@
         <v>0.1138931924357507</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03883116584988425</v>
+        <v>0.03883116584988471</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.709882519124655</v>
+        <v>6.566869586828272</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.672178947568493</v>
+        <v>1.446655654674987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.010994241032646</v>
+        <v>-1.930766976632992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.99450248227328</v>
+        <v>-2.76993980735754</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1892406500593375</v>
+        <v>0.1820552618495861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03459602466961011</v>
+        <v>0.03121630479228699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04837920227732893</v>
+        <v>-0.04784545552579569</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05982464383100397</v>
+        <v>-0.05576301146779013</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.3941592421165</v>
+        <v>20.92085756105036</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.04281948008835</v>
+        <v>15.38658356330424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.73850539979234</v>
+        <v>10.8189598601909</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.385698355949352</v>
+        <v>6.838988896658821</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6985574489832057</v>
+        <v>0.7055828151049947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3967090750288561</v>
+        <v>0.4155445937532956</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2953054478428667</v>
+        <v>0.2991554734947671</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1382308916397707</v>
+        <v>0.1471346433988142</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.995158650848921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.427740000132699</v>
+        <v>7.427740000132705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3487892263456898</v>
@@ -1049,7 +1049,7 @@
         <v>0.2317026573495544</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1630609003520213</v>
+        <v>0.1630609003520214</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>12.20117340629951</v>
+        <v>12.56906835827857</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.66543984606355</v>
+        <v>7.710371228937234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.464221757940875</v>
+        <v>6.683600888024626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.105951475671581</v>
+        <v>4.850566390637575</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2800813588217336</v>
+        <v>0.285305983222275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1676840500282753</v>
+        <v>0.1706092360267626</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1623978871916052</v>
+        <v>0.1653540449134658</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1084759554316995</v>
+        <v>0.102953981447682</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.16517443481816</v>
+        <v>17.29011381558668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.62718892291238</v>
+        <v>12.69360085089113</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.57773113413388</v>
+        <v>11.52217225633769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.0707164591292</v>
+        <v>9.759475017521973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.419139660768917</v>
+        <v>0.4209619080248603</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2943977678117712</v>
+        <v>0.2975321666343743</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3107011937189429</v>
+        <v>0.3081478396116415</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2287775732015161</v>
+        <v>0.2236630482814428</v>
       </c>
     </row>
     <row r="19">
